--- a/spreadsheet/macrofree/appservicewebapps_sg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/appservicewebapps_sg_checklist.ko.xlsx
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>들어오는 요청은 ARR 선호도를 사용하지 않도록 설정할 때 사용 가능한 모든 노드에 균등하게 분산됩니다. 균등하게 분산된 요청은 트래픽이 단일 노드를 압도하는 것을 방지합니다. 노드를 사용할 수 없는 경우 요청을 다른 정상 노드로 원활하게 리디렉션할 수 있습니다.  App Service 인스턴스가 상태 비저장 상태로 유지되도록 세션 선호도를 피합니다. 상태 비저장 App Service는 복잡성을 줄이고 노드 간에 일관된 동작을 보장합니다.  App Service가 인스턴스를 추가하거나 제거하여 수평으로 확장할 수 있도록 고정 세션을 제거합니다.</t>
+          <t>들어오는 요청은 ARR 선호도를 사용하지 않도록 설정할 때 사용 가능한 모든 노드에 균등하게 분산됩니다. 균등하게 분산된 요청은 트래픽이 단일 노드를 압도하는 것을 방지합니다. 노드를 사용할 수 없는 경우 요청을 다른 정상 노드로 원활하게 리디렉션할 수 있습니다.  App Service 인스턴스가 상태 비저장으로 유지되도록 세션 선호도를 피합니다. 상태 비저장 App Service는 복잡성을 줄이고 노드 간에 일관된 동작을 보장합니다.  App Service가 수평으로 크기를 조정할 인스턴스를 추가하거나 제거할 수 있도록 고정 세션을 제거합니다.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1163,7 +1163,7 @@
       <c r="B11" s="21" t="n"/>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>(앱 서비스) 요청 수, 느린 요청, 메모리 제한 및 성능 기준의 일부인 기타 지표를 기반으로 자동 복구 규칙을 정의합니다. 이 구성을 크기 조정 전략의 일부로 간주합니다.</t>
+          <t>(앱 서비스) 요청 수, 느린 요청, 메모리 제한 및 성능 기준의 일부인 기타 지표에 따라 자동 복구 규칙을 정의합니다. 이 구성을 크기 조정 전략의 일부로 간주합니다.</t>
         </is>
       </c>
       <c r="D11" s="21" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="D14" s="21" t="inlineStr">
         <is>
-          <t>사용자 지정 도메인은 TLS(전송 계층 보안) 프로토콜을 사용하여 HTTPS를 통해 보안 통신을 가능하게 하여 중요한 데이터를 보호하고 사용자 신뢰를 구축합니다.</t>
+          <t>사용자 지정 도메인은 TLS(전송 계층 보안) 프로토콜을 사용하여 HTTPS를 통한 보안 통신을 가능하게 하여 중요한 데이터를 보호하고 사용자 신뢰를 구축합니다.</t>
         </is>
       </c>
       <c r="E14" s="21" t="n"/>
@@ -1333,12 +1333,12 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>(앱 서비스) 가상 네트워크 통합을 위해 응용 프로그램을 구성합니다.  App Service 앱에 프라이빗 엔드포인트를 사용합니다. 모든 공용 트래픽을 차단합니다.  가상 네트워크 통합을 통해 컨테이너 이미지 풀을 라우팅합니다. 애플리케이션에서 나가는 모든 트래픽은 가상 네트워크를 통과합니다.</t>
+          <t>(앱 서비스) 가상 네트워크 통합을 위해 응용 프로그램을 구성합니다.  App Service 앱에 프라이빗 엔드포인트를 사용합니다. 모든 공용 트래픽을 차단합니다.  가상 네트워크 통합을 통해 컨테이너 이미지 끌어오기를 라우팅합니다. 애플리케이션에서 나가는 모든 트래픽은 가상 네트워크를 통과합니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Azure 가상 네트워크 사용의 보안 이점을 누리세요. 예를 들어, 애플리케이션은 네트워크 내의 리소스에 안전하게 액세스할 수 있습니다.   애플리케이션을 보호하는 데 도움이 되는 프라이빗 엔드포인트를 추가합니다. 프라이빗 엔드포인트는 공용 네트워크에 대한 직접 노출을 제한하고 역방향 프록시를 통해 제어된 액세스를 허용합니다.</t>
+          <t>Azure 가상 네트워크 사용의 보안 이점을 누리세요. 예를 들어 응용 프로그램은 네트워크 내의 리소스에 안전하게 액세스할 수 있습니다.   애플리케이션을 보호하는 데 도움이 되는 프라이빗 엔드포인트를 추가합니다. 프라이빗 엔드포인트는 공용 네트워크에 대한 직접 노출을 제한하고 역방향 프록시를 통해 제어된 액세스를 허용합니다.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>기본 인증은 보안 배포 방법으로 권장되지 않습니다. Microsoft Entra ID는 기본 인증과 관련된 제한 사항을 해결하는 많은 이점과 향상된 기능을 제공하는 OAuth 2.0 토큰 기반 인증을 사용합니다.  정책은 애플리케이션 리소스에 대한 액세스를 제한하고, 특정 도메인의 요청만 허용하며, 리전 간 요청을 보호합니다.</t>
+          <t>기본 인증은 보안 배포 방법으로 권장되지 않습니다. Microsoft Entra ID는 OAuth 2.0 토큰 기반 인증을 사용하여 기본 인증과 관련된 제한 사항을 해결하는 다양한 이점과 향상된 기능을 제공합니다.  정책은 애플리케이션 리소스에 대한 액세스를 제한하고, 특정 도메인의 요청만 허용하며, 지역 간 요청을 보호합니다.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1605,7 +1605,7 @@
       <c r="B24" s="21" t="n"/>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>(App Service 계획) 수요가 감소할 때 축소합니다. 규모를 축소하려면 크기 조정 규칙을 정의하여 Azure Monitor의 인스턴스 수를 줄입니다.</t>
+          <t>(App Service 계획) 수요가 감소할 때 규모를 축소합니다. 규모를 축소하려면 크기 조정 규칙을 정의하여 Azure Monitor의 인스턴스 수를 줄입니다.</t>
         </is>
       </c>
       <c r="D24" s="21" t="inlineStr">
@@ -1673,7 +1673,7 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>(앱 서비스) 응용 프로그램 및 인스턴스에 대한 진단 로그를 사용하도록 설정합니다.  잦은 로깅은 시스템 성능을 저하시키고, 스토리지 비용을 증가시키며, 로그에 안전하지 않은 액세스 권한이 있는 경우 위험을 초래할 수 있습니다. 다음 모범 사례를 따르십시오. - 적절한 수준의 정보를 기록합니다.  - 보존 정책을 설정합니다.  - 승인된 액세스 및 무단 시도에 대한 감사 추적을 유지합니다. - 로그를 데이터로 처리하고 데이터 보호 제어를 적용합니다.</t>
+          <t>(앱 서비스) 응용 프로그램 및 인스턴스에 대한 진단 로그를 사용하도록 설정합니다.  잦은 로깅은 시스템 성능을 저하시키고, 스토리지 비용을 증가시키며, 로그에 안전하지 않은 액세스 권한이 있는 경우 위험을 초래할 수 있습니다. 다음 모범 사례를 따르십시오. - 적절한 수준의 정보를 기록합니다.  - 보존 정책을 설정합니다.  - 승인된 액세스 및 승인되지 않은 시도에 대한 감사 추적을 유지합니다. - 로그를 데이터로 처리하고 데이터 보호 제어를 적용합니다.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>다운타임과 오류를 방지합니다.  스왑 후 문제를 감지하면 마지막으로 알려진 양호한 상태로 빠르게 되돌립니다.</t>
+          <t>다운타임과 오류를 방지합니다.  스왑 후 문제를 감지한 경우 마지막으로 알려진 양호한 상태로 빠르게 되돌립니다.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>응용 프로그램은 Always On을 사용하도록 설정된 상태로 언로드되지 않습니다.</t>
+          <t>응용 프로그램은 Always On이 활성화된 상태에서 언로드되지 않습니다.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1811,7 +1811,7 @@
       </c>
       <c r="D30" s="21" t="inlineStr">
         <is>
-          <t>HTTP/2는 연결을 완전히 다중화하고, 오버헤드를 줄이기 위해 연결을 재사용하며, 데이터 전송을 최소화하기 위해 헤더를 압축하기 때문에 HTTP/1.1보다 HTTP/2를 선택합니다.</t>
+          <t>HTTP/2는 연결을 완전히 다중화하고, 연결을 재사용하여 오버헤드를 줄이고, 헤더를 압축하여 데이터 전송을 최소화하기 때문에 HTTP/1.1보다 HTTP/2를 선택합니다.</t>
         </is>
       </c>
       <c r="E30" s="21" t="n"/>

--- a/spreadsheet/macrofree/appservicewebapps_sg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/appservicewebapps_sg_checklist.ko.xlsx
@@ -1134,7 +1134,7 @@
       </c>
       <c r="D10" s="21" t="inlineStr">
         <is>
-          <t>들어오는 요청은 ARR 선호도를 사용하지 않도록 설정할 때 사용 가능한 모든 노드에 균등하게 분산됩니다. 균등하게 분산된 요청은 트래픽이 단일 노드를 압도하는 것을 방지합니다. 노드를 사용할 수 없는 경우 요청을 다른 정상 노드로 원활하게 리디렉션할 수 있습니다.  App Service 인스턴스가 상태 비저장으로 유지되도록 세션 선호도를 피합니다. 상태 비저장 App Service는 복잡성을 줄이고 노드 간에 일관된 동작을 보장합니다.  App Service가 수평으로 크기를 조정할 인스턴스를 추가하거나 제거할 수 있도록 고정 세션을 제거합니다.</t>
+          <t>들어오는 요청은 ARR 선호도를 사용하지 않도록 설정할 때 사용 가능한 모든 노드에 균등하게 분산됩니다. 요청이 균등하게 분산되면 트래픽이 단일 노드에 과부하되는 것을 방지할 수 있습니다. 노드를 사용할 수 없는 경우 요청을 다른 정상 노드로 원활하게 리디렉션할 수 있습니다.  App Service 인스턴스가 상태 비저장 상태로 유지되도록 세션 선호도를 방지합니다. 상태 비저장 App Service는 복잡성을 줄이고 노드 간에 일관된 동작을 보장합니다.  App Service가 인스턴스를 추가하거나 제거하여 수평으로 확장할 수 있도록 고정 세션을 제거합니다.</t>
         </is>
       </c>
       <c r="E10" s="21" t="n"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>이 기능을 사용하면 애플리케이션 코드에서 인증 라이브러리를 사용할 필요가 없으므로 복잡성이 줄어듭니다. 요청이 애플리케이션에 도달할 때 사용자는 이미 인증된 상태입니다.</t>
+          <t>이 기능을 사용하면 애플리케이션 코드에서 인증 라이브러리를 사용할 필요가 없으므로 복잡성이 줄어듭니다. 요청이 애플리케이션에 도달할 때 사용자는 이미 인증되었습니다.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>Azure 가상 네트워크 사용의 보안 이점을 누리세요. 예를 들어 응용 프로그램은 네트워크 내의 리소스에 안전하게 액세스할 수 있습니다.   애플리케이션을 보호하는 데 도움이 되는 프라이빗 엔드포인트를 추가합니다. 프라이빗 엔드포인트는 공용 네트워크에 대한 직접 노출을 제한하고 역방향 프록시를 통해 제어된 액세스를 허용합니다.</t>
+          <t>Azure 가상 네트워크 사용의 보안 이점을 누리세요. 예를 들어, 애플리케이션은 네트워크 내의 리소스에 안전하게 액세스할 수 있습니다.   애플리케이션을 보호하는 데 도움이 되는 프라이빗 엔드포인트를 추가합니다. 프라이빗 엔드포인트는 공용 네트워크에 대한 직접 노출을 제한하고 역방향 프록시를 통해 제어된 액세스를 허용합니다.</t>
         </is>
       </c>
       <c r="E16" s="21" t="n"/>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>기본 인증은 보안 배포 방법으로 권장되지 않습니다. Microsoft Entra ID는 OAuth 2.0 토큰 기반 인증을 사용하여 기본 인증과 관련된 제한 사항을 해결하는 다양한 이점과 향상된 기능을 제공합니다.  정책은 애플리케이션 리소스에 대한 액세스를 제한하고, 특정 도메인의 요청만 허용하며, 지역 간 요청을 보호합니다.</t>
+          <t>기본 인증은 보안 배포 방법으로 권장되지 않습니다. Microsoft Entra ID는 OAuth 2.0 토큰 기반 인증을 사용하여 기본 인증과 관련된 제한 사항을 해결하는 많은 이점과 향상된 기능을 제공합니다.  정책은 애플리케이션 리소스에 대한 액세스를 제한하고, 특정 도메인의 요청만 허용하고, 리전 간 요청을 보호합니다.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D19" s="21" t="inlineStr">
         <is>
-          <t>App Service 계획에서 실행되는 리소스에 대한 실시간 보호를 받으세요. 위협으로부터 보호하고 전반적인 보안 태세를 강화합니다.</t>
+          <t>App Service 계획에서 실행되는 리소스에 대한 실시간 보호를 가져옵니다. 위협으로부터 보호하고 전반적인 보안 태세를 강화합니다.</t>
         </is>
       </c>
       <c r="E19" s="21" t="n"/>
@@ -1673,7 +1673,7 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>(앱 서비스) 응용 프로그램 및 인스턴스에 대한 진단 로그를 사용하도록 설정합니다.  잦은 로깅은 시스템 성능을 저하시키고, 스토리지 비용을 증가시키며, 로그에 안전하지 않은 액세스 권한이 있는 경우 위험을 초래할 수 있습니다. 다음 모범 사례를 따르십시오. - 적절한 수준의 정보를 기록합니다.  - 보존 정책을 설정합니다.  - 승인된 액세스 및 승인되지 않은 시도에 대한 감사 추적을 유지합니다. - 로그를 데이터로 처리하고 데이터 보호 제어를 적용합니다.</t>
+          <t>(앱 서비스) 응용 프로그램 및 인스턴스에 대한 진단 로그를 사용하도록 설정합니다.  잦은 로깅은 시스템 성능을 저하시키고, 스토리지 비용을 증가시키며, 로그에 안전하지 않은 액세스 권한이 있는 경우 위험을 초래할 수 있습니다. 다음 모범 사례를 따르십시오. - 적절한 수준의 정보를 기록합니다.  - 보존 정책을 설정합니다.  - 승인된 액세스 및 무단 시도에 대한 감사 추적을 유지합니다. - 로그를 데이터로 처리하고 데이터 보호 제어를 적용합니다.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>App Service는 인증서 조달, 인증서 확인, 인증서 갱신 및 Key Vault에서 인증서 가져오기와 같은 프로세스를 자동으로 처리합니다. 또는 Key Vault에 인증서를 업로드하고 App Service 리소스 공급자에게 액세스할 수 있는 권한을 부여합니다.</t>
+          <t>App Service는 인증서 조달, 인증서 확인, 인증서 갱신 및 Key Vault에서 인증서 가져오기와 같은 프로세스를 자동으로 처리합니다. 또는 인증서를 Key Vault에 업로드하고 App Service 리소스 공급자에게 액세스할 수 있는 권한을 부여합니다.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1740,12 +1740,12 @@
       <c r="B28" s="21" t="n"/>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>(App Service 계획) 프로덕션 슬롯으로 교체하기 전에 스테이징 슬롯에서 앱 변경 사항의 유효성을 검사합니다.</t>
+          <t>(App Service 계획) 프로덕션 슬롯으로 바꾸기 전에 스테이징 슬롯에서 앱 변경 사항의 유효성을 검사합니다.</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>다운타임과 오류를 방지합니다.  스왑 후 문제를 감지한 경우 마지막으로 알려진 양호한 상태로 빠르게 되돌립니다.</t>
+          <t>다운타임과 오류를 방지합니다.  스왑 후 문제를 감지하면 마지막으로 알려진 양호한 상태로 빠르게 되돌립니다.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>응용 프로그램은 Always On이 활성화된 상태에서 언로드되지 않습니다.</t>
+          <t>응용 프로그램은 Always On을 사용하도록 설정된 상태로 언로드되지 않습니다.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1806,7 +1806,7 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>프로토콜 효율성을 개선하기 위해 애플리케이션에 HTTP/2를 사용하는 것이 좋습니다.</t>
+          <t>프로토콜 효율성을 향상시키기 위해 애플리케이션에 HTTP/2를 사용하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
